--- a/data/trans_dic/P26_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P26_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha aumentado el consumo de medicación respecto al último mes</t>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>17,45%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 10,02</t>
+          <t>0,0; 6,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 7,58</t>
+          <t>0,0; 8,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 23,06</t>
+          <t>2,03; 7,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 10,73</t>
+          <t>2,57; 7,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,64; 17,21</t>
+          <t>6,99; 48,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 11,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 16,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 16,39</t>
+          <t>1,5; 8,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,88; 33,56</t>
+          <t>8,04; 19,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,19; 20,76</t>
+          <t>6,02; 12,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,15</t>
+          <t>5,99; 11,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,45</t>
+          <t>10,56; 23,53</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,17; 17,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,28; 21,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 17,42</t>
+          <t>1,29; 6,05</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 11,94</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 9,13</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 8,71</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>11,37; 30,63</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 8,77</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,39</t>
+          <t>1,37; 4,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 11,84</t>
+          <t>1,87; 5,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,47; 20,89</t>
+          <t>3,53; 7,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,25; 17,74</t>
+          <t>2,26; 6,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 18,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 15,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,98; 22,05</t>
+          <t>1,78; 5,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,1; 22,27</t>
+          <t>3,78; 8,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,82; 28,88</t>
+          <t>7,0; 11,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,91; 12,8</t>
+          <t>7,66; 11,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,87</t>
+          <t>5,85; 11,33</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,89; 16,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 20,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 21,87</t>
+          <t>1,16; 3,44</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 6,09</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 7,77</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 8,95</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 8,2</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 29,89</t>
+          <t>1,38; 6,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 14,91</t>
+          <t>1,11; 5,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 21,69</t>
+          <t>2,76; 6,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,75; 26,22</t>
+          <t>5,44; 10,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 12,64</t>
+          <t>1,89; 6,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 15,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,69; 18,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,95; 24,77</t>
+          <t>0,33; 3,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,46; 27,82</t>
+          <t>2,68; 7,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,03; 34,73</t>
+          <t>6,18; 11,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 21,43</t>
+          <t>6,98; 11,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 15,07</t>
+          <t>5,99; 11,75</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>12,58; 21,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 24,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>12,76; 23,68</t>
+          <t>1,07; 3,85</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 5,63</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 8,09</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 10,31</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 8,39</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 13,08</t>
+          <t>0,92; 4,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,21</t>
+          <t>1,55; 4,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 16,01</t>
+          <t>1,78; 11,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 16,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 14,86</t>
+          <t>1,91; 6,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 13,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,37; 14,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,78; 18,77</t>
+          <t>2,67; 5,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 25,11</t>
+          <t>4,0; 8,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,44; 23,04</t>
+          <t>5,28; 11,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 11,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 11,05</t>
+          <t>6,35; 13,77</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>11,99; 16,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>14,06; 19,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 18,51</t>
+          <t>2,05; 4,06</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 5,68</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 9,96</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 8,7</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 3,37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 3,67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 5,74</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,65; 7,28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 11,17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 4,26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 7,78</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 10,0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 10,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,27; 12,04</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 3,46</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,74; 5,41</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 7,42</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 8,54</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 10,48</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4754</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4418</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22479</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33270</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>86415</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9915</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>54947</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>56067</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>76315</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>103261</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>14669</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>59365</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>78546</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>109584</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>189676</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15194</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 27833</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10744; 38824</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18736; 56956</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30856; 215396</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3913; 22277</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33761; 81313</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38118; 79668</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>53789; 104720</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>68156; 151840</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6290; 29516</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>36159; 90673</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>57309; 106232</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>79556; 141738</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>123571; 332896</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4891</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26159</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37818</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>84700</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>41592</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23577</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>57820</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>113481</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>146598</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>90265</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>28468</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>83980</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>151299</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>231298</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>131857</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17638</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12789; 45143</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22583; 61215</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>57185; 118339</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24117; 65581</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12714; 40393</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37712; 84842</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>86295; 147348</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>115239; 180023</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>63390; 122794</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>15785; 46966</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>60654; 117437</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>120505; 189678</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>187961; 279556</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100656; 176513</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14764</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19941</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>36871</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>82520</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28974</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6747</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>36097</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>77962</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>107137</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>76641</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>21511</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>56038</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>114833</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>189657</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>105615</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6286; 29914</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7935; 36794</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23305; 57392</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>59393; 114529</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15626; 54263</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1770; 18747</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20568; 57871</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>58222; 105607</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>81186; 136247</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>53570; 105171</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>10581; 38034</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>36310; 83474</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>87787; 144558</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>153092; 232318</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>77002; 144556</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>40695</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40092</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39198</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>41673</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>78068</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>80470</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>60238</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>90476</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>118763</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>120562</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>99436</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>132148</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19412; 88856</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>22575; 67192</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15302; 99883</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20874; 75813</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>55888; 108334</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>56021; 113725</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40315; 86452</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>62212; 134930</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>86171; 170645</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>90244; 162267</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>67023; 161725</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>94443; 180612</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>65104</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>90611</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>136366</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>200490</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>198654</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>118307</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>229334</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>307747</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>330050</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>360642</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>183411</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>319945</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>444113</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>530540</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>559296</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>41431; 116146</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>61480; 126363</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>99329; 197684</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>159806; 250496</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>129131; 383587</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>86862; 153429</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>181947; 279028</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>266342; 357096</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>279471; 380342</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>298090; 433817</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>144413; 244098</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>263086; 380328</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>385726; 520676</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>465877; 598247</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>466574; 737655</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
